--- a/biology/Zoologie/Ferganobatrachus/Ferganobatrachus.xlsx
+++ b/biology/Zoologie/Ferganobatrachus/Ferganobatrachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferganobatrachus riabinini
 Ferganobatrachus est un genre fossile d'amphibiens préhistoriques. Son espèce type est Ferganobatrachus riabinini et, en 2022, ce genre est reste monotypique.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferganobatrachus riabinini est encore fort peu attesté, dans la mesure où il n'a été observé qu'à travers quelques fossiles (cinq collections en 2022) au Kirghizistan, sous une seule espèce, Ferganobatrachus riabinini, datant de la période 168-166 Ma au Jurassique moyen[1],[2]. Une identification avec le genre Gobiops a été proposée et semble probable[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferganobatrachus riabinini est encore fort peu attesté, dans la mesure où il n'a été observé qu'à travers quelques fossiles (cinq collections en 2022) au Kirghizistan, sous une seule espèce, Ferganobatrachus riabinini, datant de la période 168-166 Ma au Jurassique moyen,. Une identification avec le genre Gobiops a été proposée et semble probable.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ferganobatrachus et l'espèce Ferganobatrachus riabinini ont été décrits en 1991 par le paléontologue russe Lev Alexandrovich Nessov (d) (1947-1995)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ferganobatrachus et l'espèce Ferganobatrachus riabinini ont été décrits en 1991 par le paléontologue russe Lev Alexandrovich Nessov (d) (1947-1995).
 </t>
         </is>
       </c>
